--- a/500all/speech_level/speeches_CHRG-114hhrg95252.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95252.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="305">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412270</t>
   </si>
   <si>
-    <t>Jason Chaffetz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Chaffetz. The Committee on Oversight and Government Reform will come to order. Without objection the chair is authorized to declare a recess at any time.    We have an important hearing today dealing with the TSA. Airport security is pivotal to our Nation's safety and security. We appreciate the thousands and thousands of men and women who serve at the TSA. I think they work hard. They are dedicated. They are committed. They don't know what they are going to see. We have an inordinate amount of guns that are still trying to be taken through airports, weapons of all kinds. It's a very difficult situation with literally tens and tens of thousands of security badges that are out there.    We need to continue to have a good, vibrant discussion in this country about the safety and security of our airports and how to do that. And one of the things I like to say, and I've said it many times, and I'm sure I'll continue to say it is, we're different in this Nation in that we are self-critical. We do take a good, hard look at our security parameters and challenge the notion that the standard status quo is acceptable.    One of the things that stuck out to me in the 9/11 report, the commission that came together, is that often government lacks imagination, where terrorists and would-be nefarious characters who want to do harm and provide mayhem, death, and destruction to the United States of America will often be more creative than our security personnel. And so to have this type of discussion, it's good that we hear a variety of perspectives. We have had some good work from the inspector general. We have had good work from the GAO. We have a good perspective from others who have had to deal with highly targeted areas such as Israel. And that's the type of discussion we have today.    But it does require that we have a very good communication between the Congress and Homeland Security, specifically the TSA. We have had an exceptionally difficult time, exceptionally difficult time, getting information from the TSA on some very basic matters.    One of the things, for instance, that we asked for, this is a blank, ladies and gentlemen, this is a blank form, a blank form, not filled out, a blank form that people are to use as they assess security. We asked to see a copy of it. We were allowed to see it in camera, but members here were not allowed to see that. And so we asked for a copy of it. This is what they give us, 100 percent redacted. This is a blank form that they will not even allow Congress to see. Now, if that's the type of cooperation we're going to get from the TSA, we're going to have some very difficult times.    Now, we had invited Mr. Caraway, who is the acting administrator, to come before the Committee. At first we heard a variety of excuses. We needed more than 2 weeks. Then we had a big dustup because for weeks we had planned to do this, in fact, more than a month we had planned to do this. Felt that he as the acting administrator would be pivotal to this discussion.    But Homeland Security objected to Mr. Ron's presence on the panel. They felt that it was demeaning, demeaning, to actually have the acting administrator sit on the same panel as a nongovernment witness. That's absurd. That's offensive. It's a waste of the Committee's time. It's a waste of Congress' time. We don't need two panels to have this discussion. We want to have one panel.    Now, we had decided in a very bipartisan, mutual way, that cabinet level secretaries, if they come to testify before the Committee, will be the sole person to testify. If you're below a cabinet level secretary, we're not going to separate you out into your own panel. But the TSA, different than others that we have had--I would remind you that we have had a variety of other people come before this Committee who sit side-by-side with regular people from the outside, from the private sector--and so unfortunately the TSA has refused, and Mr. Carraway has refused the Committee's invitation to appear before Congress.    We have been working on this since the first part of April. They've had plenty of notice, and up until late, late, late yesterday, he was going to be here if it was a separate panel. But now because we are not going to waste this Committee's time, we are not going to waste members' time, they are not sitting here today, and we will have less of a hearing because of it. It's an embarrassment that they would do that. They made these decisions themselves, but that is not the way it's going to work around here.    TSA had said, well, maybe we'll give you somebody else. It's not the TSA's decision as to who Congress calls to testify. That is not their decision. It is the decision of Congress to understand and to be informed by those that they invite before Congress. But that's where we find ourselves today.    So with that I'm going to now yield to--I took a little extra time there with that explanation--but now I would like to now recognize the chairman of the Subcommittee on Transportation, Mr. Mica of Florida.</t>
   </si>
   <si>
     <t>400273</t>
   </si>
   <si>
-    <t>John L. Mica</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mica. Thank you. Thank you, Mr. Chairman, and the Ranking Member for holding this meeting. I think it's an insult to the Committee that TSA would not send the acting administrator to this panel with due notice. This is a very important oversight hearing. We spend about $7 billion a year now on TSA's activities. And if anyone takes time to read this report--we're going to hear from John Roth in a few minutes, the inspector general who produced this report--but every Member of Congress and people throughout the country should read this report.    This report is an indictment of the failure of TSA, not just in one area, but in almost every one of their functions. It's supposed to be a multi-tiered transportation security system they set up; and in every aspect--just glance through the report--everything from passenger baggage screening and passenger screening, one indictment after another on systems to provide access for people who don't pose a risk, and we all support TSA PreCheck. They, in fact--and it's designed to expedite passengers who don't pose a risk. In fact, we find instances in which they failed to connect the dots and found a passenger who was a convicted terrorist, Sara Jane Olson--this is a press report--who went through TSA. Their system failed to find these people.    The most important thing we're trying to do is find people who pose a risk. The TSA agent who saw her go through actually identified her because she was such a well-known terrorist from her picture. And then what is even more astounding is he went to a superior, and he actually authorized the expediting of a terrorist through this system. This is an outrageous history.    And I have to say, the chairman is not Jason-come-lately. If you read further in the report, they talk about equipment purchases and the failure of buying. You have to have the best technology when someone comes through, not just an expedited system, but to see what they have that poses a risk, whether it's arms or now explosives and other devices that might harm us.    Back in 2009 the chairman introduced legislation to restrict the purchase of some equipment that actually didn't do the job, and this is a press account back then, and he was thwarted. They ended up buying equipment--read the report, an indictment of buying billions of dollars worth of equipment that failed. They bought puffers that failed. They bought this Rapiscan equipment. And it's interesting, the history of it is also interesting that Linda Daschle represented one company--people might be familiar with that name L-3, and then Rapiscan which the chairman had raised some questions about privacy issues and not using it.    They went ahead and spent--they split the contract, a half a billion dollar contract between the two competing lobbyists. A half a billion for the equipment is one thing. Then it cost another quarter of a billion per set of equipment to install this stuff. But this is an indictment of even the remaining equipment. The Rapiscan the chairman had raised questions about had to be taken out, had to be taken out. But then on top of that, this report says the equipment they have, they can't maintain. They don't know whether it works or not, and they don't have people properly trained to run the equipment.    This is a very sad day, and I can see why TSA did not want to show up today. They have 61,000 employees. They have 15,000 administrators because we have a cap of 46,000 screeners. And this whole report outlines in each area, training,recruitment, acquisition of equipment, how they've failed. I see why that seat is empty today and TSA would not show their face to this Committee today. I yield back.</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>400090</t>
   </si>
   <si>
-    <t>Elijah E. Cummings</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cummings. Thank you very much, Mr. Chairman, and I do thank you for calling this very important hearing. The Transportation Security Administration has an incredibly challenging mission. It has to strike just the right balance between passenger safety and passenger convenience. Everyone who has been to an airport in the past 15 years can relate to the frustration of waiting in long lines at security checkpoints.    But after 9/11, we are painfully aware of the dangers we face on a continuing basis. The challenge of the TSA is to develop programs that maximize safety and convenience, programs that protect the traveling public without making their experience unbearable.    Last year Congress directed TSA to increase the number of passengers enrolled in the PreCheck program. Under the program, travelers submit background information, criminal histories and fingerprints. This information is run against terrorist watch lists and criminal data bases. If these searches turn up no problems, passengers are given known traveler numbers, and that allows them to pass through expedited security lines with fewer restrictions.    When Congress passed this law, it gave TSA specific targets. For example, Congress directed TSA to certify that 25 percent of all passengers are eligible for expedited screening without lowering security standards, and that the agency has been working toward that goal. But, however, the inspector general and the Government Accountability Office have raised concerns about this process. For example, the current program relies on passengers to provide information about any new criminal convictions or similar information after they have enrolled in the program. In other words, the system relies on passengers to self-update.    According to the inspector general, TSA should develop a system to conduct 24-hour recurrent vetting of PreCheck members against law enforcement and intelligence data bases. I know many people and many agencies have been working for years to do just that. I also understand how difficult it is to link various local State and Federal data systems. However, this may be one area in which our Committee can offer unique assistance, especially with our wide jurisdiction that cuts across all levels of government.    GAO and the inspector general have also raised concern with the Managed Inclusion program. Under this program TSA officers identify passengers that are not enrolled in the PreCheck program and direct them to pass through the PreCheck security lanes if they appear to be low risk. TSA uses behavioral detection officers to identify passengers with low risk indicators, such as children and the elderly, and they also employ explosive trace detection and K-9 teams.    GAO reported that although TSA has tested the individual pieces of the Managed Inclusion program, it has not tested them as a whole system. In addition, the inspector general recommended that TSA halt the Managed Inclusion program until technology can be developed to connect terrorist watch lists to individual airport security checkpoints.    Another concern is perimeter security. One of our witnesses today, Mr. Rafi Ron, of the New Age Security Solutions, has flagged this as an issue that needs much more attention, particularly given the various entities that play a role in this process, including local airport police, airport operators, and TSA.    After a 15-year-old hopped a fence at the San Jose International Airport, climbed into an aircraft wheel well, and traveled to Hawaii, the Associated Press initiated the investigation of perimeter breaches. AP reported that approximately 268 perimeter security breaches have occurred since 2004 in airports that handle three-quarters of the Nation's commercial passenger traffic. We're better than that. We're only as strong as the weakest link in our chain, so it is important to ensure that all of these issues are addressed. It is easy to simply criticize the agency, but it is much more difficult, and it takes much more effort to identify solutions to these problems and ensure that they are well-implemented.    I want to thank Chairman Chaffetz for calling this hearing, and, Mr. Chairman, I agree; Mr. Carraway ought to be here. And as I said to you before the hearing began, we need to fix a date for him to come in so that we can hear from him. I know the chairman has focused on these issued extensively, and I want to thank him for all of his hard work in this area, and I also look forward to the testimony today; and with that I yield back.</t>
   </si>
   <si>
@@ -91,24 +82,21 @@
     <t xml:space="preserve">    Chairman Chaffetz. But now will recognize our panel of witnesses. As I mentioned earlier, Mr. Melvin Carraway, Acting Administrator for the Department--of Transportation Security Administration at the Department of Homeland Security was scheduled to testify but has not arrived, has not shown up, has elected to not testify today, which was not an optional activity.    We are pleased to have the Honorable John Roth, Inspector General for the Department of Homeland Security; Ms. Jennifer Grover, Acting Director of Homeland Security and Justice at the Government Accountability Office; and Mr. Rafi Ron, President and CEO of New Age Security Solutions, who also has extensive airport security work that he has personally participated in, in Israel.    We welcome you all. Pursuant to Committee rules, all witnesses will be sworn before they testify, so if you will please rise and raise your right-hand.    Do you solemnly swear or affirm that the testimony you are about to give will be the truth, the whole truth, and nothing but the truth?    Thank you. Let the record reflect that all witnesses answered in the affirmative. In order to allow time for discussion, we would appreciate it if you would limit your testimony to 5 minutes. Your entire written record will be obviously made a part of the record. We're pretty liberal on your verbal comments, but try to keep it close to 5. And we'll start with you, Mr. Roth. You're now recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>412661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. Chairman Chaffetz, Ranking Member Cummings, and members of the Committee, thank you for inviting me here to testify today about airport security issues. Each day TSA is required to screen about 1.8 million passengers and about 3 million carryon bags at 450 airports nationwide. TSA faces a classic asymmetric threat. It cannot afford to miss a single, genuine threat without potentially catastrophic consequences. A terrorist, on the other hand, only needs to get it right once. TSA's 50,000 transportation security officers spend long hours performing tedious tasks that require constant vigilance. Complacency can be a huge problem. Ensuring consistency across DHS' largest work force would challenge even the best of organizations. Unfortunately, although nearly 14 years have passed since TSA's inception, we remain deeply concerned about its ability to execute its mission.    Since 2004 we have published more than 115 audit and inspection reports about TSA's programs and operations. We have issued hundreds of recommendations to attempt to improve TSA's efficiency and effectiveness. We have conducted a series of covert penetration tests, essentially testing TSA's ability to stop us from bringing in simulated explosives and weapons through checkpoints, as well as testing whether we could enter secure areas through other means. Although the results of those tests are classified, and we would be happy to brief any Member or their staffs in a secure setting with regard to our specific findings, we identified vulnerabilities caused by human and technology-based failures.    We have audited and reported on TSA's acquisitions. Our audit reports show that TSA faces significant challenges in contracting for goods and services. Despite spending billions on aviation security technology, our testing of certain systems has revealed no resulting improvement.    We have examined the performance of TSA's work force, which is largely a function of who is hired and how they are trained and managed. Our audits have repeatedly found that human error, often a simple failure to follow protocol, poses significant transportation security vulnerabilities. We have looked at how TSA plans for, buys, deploys, and maintains its equipment and have found challenges at every step in the process. These weaknesses have real and negative impact on transportation security as well.    Additionally, we have looked at how TSA assesses risk in determining expedited screening. We applaud TSA's efforts to use risk-based passenger screening because it allows TSA to focus on high or unknown risk passengers instead of known, vetted passengers who pose less risk. However, we have deep concerns about some of TSA's decisions about the level of risk.    We recently assessed the PreCheck Initiative. As a result of that inspection, we concluded that some of the methods that the TSA used in determining risk are sound approaches to increasing the PreCheck population. But other methods, specifically some of TSA's risk assessment rules, create security vulnerabilities. Based on our review, we believe TSA needs to modify the Initiative's vetting and screening processes. Unfortunately TSA did not concur with the majority of our recommendations. We believe that this represents TSA's failure to understand the gravity of the situation.    As an example of PreCheck's vulnerabilities, we recently reported that, through risk assessment rules, a notorious felon was granted expedited screening through PreCheck. The traveler was a former member of a domestic terrorist group and while a member was involved in numerous felonious criminal activities that led to arrest and conviction. After serving a multiple-year prison sentence, the traveler was released. Notwithstanding the fact that the transportation security officer recognized the traveler based on media coverage, that traveler was permitted to use expedited screening.    TSA has taken some steps to implement our recommendations and address security vulnerabilities. Nevertheless, some problems appear to persist. While TSA cannot control all risks to transportation security, many issues are well within their control. Sound planning and strategies for efficiently acquiring, using, and maintaining screening equipment that operates at full capacity to detect dangerous items, for example, would go a long way toward improving overall operations. Better training and better management of transportation security officers would help mitigate the effects of human error, which can never be eliminated but can be reduced. Taken together, TSA's focus on its management practices and its oversight of its technical assets and work force would help enhance security as well as customer service for air passengers.    Mr. Chairman, this concludes my prepared Statement. I welcome any questions you or other members of the Committee may have.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman Chaffetz. Thank you. And thanks to you and your staff who spent a lot of time putting this information together. We do appreciate it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman Chaffetz. Ms. Grover. You're recognized for 5 minutes.</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Roth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. Chairman Chaffetz, Ranking Member Cummings, and members of the Committee, thank you for inviting me here to testify today about airport security issues. Each day TSA is required to screen about 1.8 million passengers and about 3 million carryon bags at 450 airports nationwide. TSA faces a classic asymmetric threat. It cannot afford to miss a single, genuine threat without potentially catastrophic consequences. A terrorist, on the other hand, only needs to get it right once. TSA's 50,000 transportation security officers spend long hours performing tedious tasks that require constant vigilance. Complacency can be a huge problem. Ensuring consistency across DHS' largest work force would challenge even the best of organizations. Unfortunately, although nearly 14 years have passed since TSA's inception, we remain deeply concerned about its ability to execute its mission.    Since 2004 we have published more than 115 audit and inspection reports about TSA's programs and operations. We have issued hundreds of recommendations to attempt to improve TSA's efficiency and effectiveness. We have conducted a series of covert penetration tests, essentially testing TSA's ability to stop us from bringing in simulated explosives and weapons through checkpoints, as well as testing whether we could enter secure areas through other means. Although the results of those tests are classified, and we would be happy to brief any Member or their staffs in a secure setting with regard to our specific findings, we identified vulnerabilities caused by human and technology-based failures.    We have audited and reported on TSA's acquisitions. Our audit reports show that TSA faces significant challenges in contracting for goods and services. Despite spending billions on aviation security technology, our testing of certain systems has revealed no resulting improvement.    We have examined the performance of TSA's work force, which is largely a function of who is hired and how they are trained and managed. Our audits have repeatedly found that human error, often a simple failure to follow protocol, poses significant transportation security vulnerabilities. We have looked at how TSA plans for, buys, deploys, and maintains its equipment and have found challenges at every step in the process. These weaknesses have real and negative impact on transportation security as well.    Additionally, we have looked at how TSA assesses risk in determining expedited screening. We applaud TSA's efforts to use risk-based passenger screening because it allows TSA to focus on high or unknown risk passengers instead of known, vetted passengers who pose less risk. However, we have deep concerns about some of TSA's decisions about the level of risk.    We recently assessed the PreCheck Initiative. As a result of that inspection, we concluded that some of the methods that the TSA used in determining risk are sound approaches to increasing the PreCheck population. But other methods, specifically some of TSA's risk assessment rules, create security vulnerabilities. Based on our review, we believe TSA needs to modify the Initiative's vetting and screening processes. Unfortunately TSA did not concur with the majority of our recommendations. We believe that this represents TSA's failure to understand the gravity of the situation.    As an example of PreCheck's vulnerabilities, we recently reported that, through risk assessment rules, a notorious felon was granted expedited screening through PreCheck. The traveler was a former member of a domestic terrorist group and while a member was involved in numerous felonious criminal activities that led to arrest and conviction. After serving a multiple-year prison sentence, the traveler was released. Notwithstanding the fact that the transportation security officer recognized the traveler based on media coverage, that traveler was permitted to use expedited screening.    TSA has taken some steps to implement our recommendations and address security vulnerabilities. Nevertheless, some problems appear to persist. While TSA cannot control all risks to transportation security, many issues are well within their control. Sound planning and strategies for efficiently acquiring, using, and maintaining screening equipment that operates at full capacity to detect dangerous items, for example, would go a long way toward improving overall operations. Better training and better management of transportation security officers would help mitigate the effects of human error, which can never be eliminated but can be reduced. Taken together, TSA's focus on its management practices and its oversight of its technical assets and work force would help enhance security as well as customer service for air passengers.    Mr. Chairman, this concludes my prepared Statement. I welcome any questions you or other members of the Committee may have.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Chairman Chaffetz. Thank you. And thanks to you and your staff who spent a lot of time putting this information together. We do appreciate it.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Chairman Chaffetz. Ms. Grover. You're recognized for 5 minutes.</t>
-  </si>
-  <si>
-    <t>Grover</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Grover. Good morning, Chairman Chaffetz, Ranking Member Cummings, and other members and staff. Thank you for the opportunity to discuss TSA's oversight of passenger and airport worker screening effectiveness.    Screening systems must work properly to deliver the security protections that they promise. Over several years GAO has found weaknesses in TSA's oversight of its screening systems, raising questions about whether TSA is falling short in its ability to ensure aviation security. TSA has taken some steps to improve oversight of these systems, but additional actions are needed.    Today I will focus on four areas. First, a Secure Flight program which matches passenger information against Federal Government watch lists to ensure that those who should not fly or should receive enhanced screening are identified. Second, AIT systems, which are the full body scanners that are used to screen passengers for prohibited items at the checkpoint. Third, the Managed Inclusion screening process which TSA uses to provide expedited screening to passengers who were not previously identified as low risk; and, fourth, criminal history checks done to vet airport workers.    Regarding Secure Flight, we found in September 2014 that TSA did not have timely and reliable information about the extent or causes of system matching errors which occur when Secure Flight fails to identify passengers who were actual matches to the watch list. In response to our recommendation, TSA has developed a mechanism to keep track of the known matching errors, and they are considering methods to evaluate overall Secure Flight matching accuracy rates on an ongoing basis.    Regarding AIT, we found in March 2014, that TSA did not include information about screener performance when they were evaluating AIT effectiveness. Rather, TSA's assessment was limited to the accuracy of the AIT systems in the laboratory. However, after an AIT identifies a potential threat, a screening officer must do a targeted pat down to resolve the alarm. Thus, the accuracy of the screeners in conducting their pat downs properly and identifying all threat items is key to understanding the effectiveness of the AIT systems in the airport operating environment.    DHS concurred with our recommendation to measure AIT effectiveness as a function of both the technology and the screening officers who operate it but has not yet fully addressed the recommendation.    Similarly, in December 2014, we found that TSA had not tested the security effectiveness of the Managed Inclusion system as it functions as a whole. As part of Managed Inclusion, TSA uses multiple layers of security, as you noted in your opening Statements, such as explosive detection devices and canines, to mitigate the inherent risk that's associated with screening randomly selected passengers in a system that was specifically designed for low-risk passengers. However, if the security layers are not working as intended, then TSA may not be sufficiently screening passengers. As you noted, TSA has tested the individual layers of security used in Managed Inclusion and has reported finding them effective, although GAO has raised concerns about the effectiveness of some of these layers such as behavior detection officers. At the time of our report, TSA was planning to complete testing of the Managed Inclusion system by mid-2016.    Finally, regarding TSA's involvement in airport worker vetting, we found in December 2011 that the criminal history information available to TSA and airports for background checks was limited. Specifically, TSA's level of access to FBI criminal history records was excluding many State records. In response to our recommendation, TSA and the FBI confirmed that there was a risk of incomplete information, and the FBI has since reported expanding the criminal history records information that is available to TSA for these security threat assessments.    In conclusion, TSA has made progress in improving its screening oversight such as by taking steps to understand the vulnerabilities in the Secure Flight program, and by working with the FBI to obtain access to more complete criminal background information. Yet more work remains to ensure that Secure Flight, AIT, and Managed Inclusion are working as TSA intends.    Chairman Chaffetz, Ranking Member Cummings, this concludes my Statement. I look forward to your questions.</t>
   </si>
   <si>
@@ -118,12 +106,6 @@
     <t xml:space="preserve">    Chairman Chaffetz. Mr. Ron, you are now recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>412526</t>
-  </si>
-  <si>
-    <t>Ron DeSantis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ron. First of all, I would like to thank the chairman and the members of the Committee for inviting me to testify again before you. I have chosen to speak today not on passenger screening, as the other witnesses have referred to this in details, but rather go into what Mr. Cummings mentioned earlier, and that is the failure to deal with what I would describe as the airport facility security, which is an extremely important part of our airport and aviation security system.    What I wish the Committee to understand is that the importance of perimeter security has to be measured against the threat of somebody being able to access an aircraft parked on the ground without knowledge, without detection. And in the case of a stowaway, as we have witnessed in the past, they tried to get--to take hide in the wheel well, but instead of that, certainly instead of 120 pounds of bone and flesh of a person, they leave behind a 2-pound device that will not be noticed.    The measures that are being implemented today are simply unable to do that. So if I would put that into a nutshell, I would say that while we invest billions of dollars every year in screening passengers and at the same time we leave the perimeter, I don't want to say unattended, but I would say unattended to a satisfactory level. What we actually do is invest all our resources on the front door and leaving the back door open. But at the end of the day it is the same aircraft that we are trying to protect by the screening that would be harmed by a relatively easy access of individuals through the perimeter.    So perimeter is certainly something that we have noticed in the past. It was discussed in this Committee, and I haven't seen a lot of development during the last few years despite the fact that it made a lot of headlines.    The other subject that made it out of headlines lately, is the issue of the threat of the insider, or in other terms when employees become part of an operation, to carry out illegal activity that could be also translated into terrorist threat immediately. We saw the case in Atlanta. Although here in this case I have to say that TSA had responded to it rather quickly by increasing the background checks and the frequency of those checks. But as we just heard from the other witnesses, there is still an open question about the quality of the background check itself, whether that really provides us with the security that we need.    And the third point that I'd like to refer to is the issue of how well do we protect the public and the employees at the airport against ground attacks as we witnessed a couple of years ago at LAX when an active shooter started shooting at the checkpoint and the security forces in the airport responded in a way that certainly can lead us to conclusions. There is a lot of room for improvement in this area.    The common denominator of all these three points that I made is that none of them are related to passengers, and yet they are falling back, even in comparison with the quality of screening passengers, and that means that the reason for that, in my view, is that in 2001, when TSA was established, it was established both as an implementer of security, as well as a regulator.    And I don't know any other example in government structures where an entity is actually regulating itself. There has to be a certain level of independence to the regulator, independence and authority, for the regulator to first of all, issue regulations that sometimes may not be comfortable for the implementer, but still have to be performed. And certainly when you look for the performance that doesn't meet the regulatory requirements but you are in charge of implementation, that's a conflict of interest, and I strongly recommend that the Committee will have a look at it and will consider a solution to that.    And the last point that I'd like to make is that, when we look at police forces in airports around the country, we see the more or less standard law enforcement organizations as we meet in the city center. But we have to understand that at the airport, the police function, the police priority should be security and prevention rather than law enforcement and reaction. Because when a terrorist attack takes place, it's all over. There's very little that you can do except deal with the damages. If we talk about explosive devices, and even when we talk about active shooters, they are willing to perform better. And that certainly calls for a different type of airport policing.    Airport police should be a dedicated, specialized force where the people are selected on the basis of their ability to perform those roles. They have to be trained and certified, and their certification has to be maintained. Exercises should be carried out on a regular basis, and at the end of the day, we have to make sure that the capability to prevent, or in cases where we need to respond, would be quick and effective. And this is not where we are today. Thank you very much.</t>
   </si>
   <si>
@@ -247,9 +229,6 @@
     <t>400251</t>
   </si>
   <si>
-    <t>Carolyn B. Maloney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Maloney. I thank the panelists for your testimony and your work, and I thank the ranking member and chair for calling this important hearing. And I agree completely with the Statements of Mr. Roth when he said that the terrorist only has to be right once. We have to be right 100 percent of the time. We have got to stop them from coming through.    I would say nothing is more important than protecting our people. And I will say that since 9/11, the New York City Police Department has documented well over 17 attempts to murder New Yorkers, and they have been thwarted through the combined efforts of all of law enforcement, including TSA, which is working every day to stop it.    For some reason in our classified intelligence briefings, airlines continue to be a top priority for terrorists, a top target. They keep trying different ways. We hear it from press reports, your reports, and reports from airline stewardesses and captains of how they're trying to break the perimeter, how they are trying to get into the cockpit in different ways. And so I see this as a collective effort to fight back. It's not just TSA but all of us working with them to fight back.    The PreCheck program, we also need commerce to work, and at first airlines were so backed up people weren't even flying anymore. I will say now that in New York the PreCheck program is a success. Now the PreCheck line is longer than the normal line. More people are in the PreCheck line than in the other, so many people are in it, which I think speaks well that we have processed a lot of people and made it more efficient.    So I want to ask Ms. Grover, apparently 33 percent of the passengers now pass through PreCheck. Is that correct? About how many people are in PreCheck now, would you say?</t>
   </si>
   <si>
@@ -289,9 +268,6 @@
     <t>412213</t>
   </si>
   <si>
-    <t>Tim Walberg</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Walberg. Thank you, Mr. Chairman. Mr. Ron, why do you believe preventing perimeter breaches should be a top priority?</t>
   </si>
   <si>
@@ -343,9 +319,6 @@
     <t>400249</t>
   </si>
   <si>
-    <t>Stephen F. Lynch</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lynch. Thank you, Mr. Chairman. Mr. Chairman, if I could just ask, I know that because of the scope and depth of the problem here, Mr. Carraway's attendance here would be very, very important. I'm just wondering if the Committee has any plans to subpoena him, Mr. Chairman?</t>
   </si>
   <si>
@@ -391,12 +364,6 @@
     <t xml:space="preserve">    Mr. Mica. Mr. Grothman.</t>
   </si>
   <si>
-    <t>412661</t>
-  </si>
-  <si>
-    <t>Glenn Grothman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Grothman. Thank you. I have just have a couple questions. First of all, you said before, how many supervisors do you have as part of TSA?</t>
   </si>
   <si>
@@ -475,9 +442,6 @@
     <t>412613</t>
   </si>
   <si>
-    <t>Mark DeSaulnier</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. DeSaulnier. Thank you, Mr. Chairman. Let me begin by opening comments recognizing the enormity of the responsibilities that you have and assuming there have been many successes. But Mr. Roth, I wanted to talk about really two subject areas, and Mr. Ron, the second part is the perimeter given that I'm from the Bay Area and we've had a lot of news coverage on that case and other cases.    But Mr. Roth, you mentioned in your opening comments that complacency is a huge problem and that human error is too common and basically it's--the human error is simply to follow protocol. And also you mentioned that you have to be--TSA has to be right every time and a terrorist only has to be right one time. So we have lots of examples in proper quality assurance in different fields, in similar situations, at hospitals or industrial facilities. Is there a basic--or maybe Mr. Ron knows this or Ms. Grover, a basic management tool when you have these kind of situations to make sure that complacency isn't the order of the day?</t>
   </si>
   <si>
@@ -529,9 +493,6 @@
     <t>412623</t>
   </si>
   <si>
-    <t>Jody B. Hice</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hice. Thank you, Mr. Chairman. This past February NBC News reported that over 1,400 security badges were missing in Hartsfield-Jackson Atlanta International Airport just over the last 2 years alone. Mr. Roth, could you briefly explain how TSA responds when some of these security badges turn up missing?</t>
   </si>
   <si>
@@ -619,9 +580,6 @@
     <t>400074</t>
   </si>
   <si>
-    <t>Wm. Lacy Clay</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Clay. Thank you, Mr. Chairman, thank you, Ranking Member Cummings for conducting this hearing. I appreciate the efforts to streamline the security screening process for low-risk individuals and shift focus to those who are deemed at higher risk. My understanding is that all airline passengers are compared to Federal Government terrorism watch lists through the Secret Flight program. Ms. Grover, is that correct?</t>
   </si>
   <si>
@@ -715,9 +673,6 @@
     <t>400116</t>
   </si>
   <si>
-    <t>John J. Duncan, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Duncan. Well, thank you, Mr. Chairman. And I apologize to the panel because I've been at another hearing and I'm trying also to meet with constituents, but I did want to ask about something in Mr. Ron's testimony that really stood out to me. You say although most aviation employees are honorable, hardworking Americans, recent reports indicate serious problems that range from firearms and so forth and so on. And so what is particularly troublesome is that the crimes are rarely the actions of an isolated individual, and networks of employees are flaunting the law and bypassing security for their personal motives. Such individuals are very susceptible to terrorist influences and so forth.    Now, I know that a lot of times with this 24-hour news cycle, we're almost sensationalizing even minor incidents. But that seems to me to be a pretty sensational type Statement, Mr. Ron, when you say networks of employees. And I'm wondering, I know you mention the Atlanta incident or the Atlanta smuggling, but I'm wondering, is this oversensationalized or is this happening in all the major airports? You say networks of employees. How widespread is this?</t>
   </si>
   <si>
@@ -775,9 +730,6 @@
     <t>412595</t>
   </si>
   <si>
-    <t>Robin L. Kelly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Kelly. Thank you, Mr. Chair, and thank you, Ranking Member Cummings, for holding a hearing on a pressing issue like our aviation security. I would also like to thank our witnesses who have taken time out of their busy schedules to speak with us today.    Mr. Chairman, with the summer travel season fast approaching, our Nation's airports will be pressed to the maximum capacity. This means long security lines, overworked TSA agents and control tower officials. It also means detecting and neutralizing a security threat in a crowded airport can be as difficult as finding a needle in a haystack. This is something all Americans, and of course my constituents in particular, know all too well. The greater Chicago area is currently served by two airports. I'm sure most people in this room here today at some point or another have missed a connecting flight or had a long layover in one of our airports. I hear complaints from my colleagues all the time. A culture of delays, overcrowded hallways and long security lines are not only frustrating and inefficient, but also unsafe. A need for a third airport in Chicago has been known for years.    I have been working with Secretary Foxx and Administrator Huerta to make a south suburban airport a reality. I am pleased to say that the project is close to becoming a reality and I will continue to push for its creation. Therefore, I'd like to ask the witnesses to provide their insights into this matter.    How does the fact that major airports are operating at capacity impact our national security? I'll ask both my questions. Impact our national security. And the other, would construction of new airports improve our national security by easing pressures on current airports? And whoever wants to take the question.</t>
   </si>
   <si>
@@ -905,9 +857,6 @@
   </si>
   <si>
     <t>412638</t>
-  </si>
-  <si>
-    <t>Brenda L. Lawrence</t>
   </si>
   <si>
     <t xml:space="preserve">    Mrs. Lawrence. Thank you, Mr. Chair. Talk about the issue of access through the IDs, on March 9, 2015, NBC News reported that 1,400 badges that granted access to secure areas had gone missing over a 2-year period. Are you familiar with this report, Mr. Roth?</t>
@@ -1378,11 +1327,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1402,13 +1349,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1430,11 +1375,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1456,11 +1399,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1480,13 +1421,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1508,11 +1447,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1534,11 +1471,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1560,11 +1495,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1584,13 +1517,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1612,11 +1543,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1638,11 +1567,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1662,13 +1589,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1690,11 +1615,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1716,11 +1639,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1740,13 +1661,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1766,13 +1685,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1792,13 +1709,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1818,13 +1733,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1844,13 +1757,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1870,13 +1781,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1896,13 +1805,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1922,13 +1829,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1948,13 +1853,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1974,13 +1877,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2000,13 +1901,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2026,13 +1925,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2052,13 +1949,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2078,13 +1973,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2104,13 +1997,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2130,13 +2021,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>25</v>
-      </c>
-      <c r="G31" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2156,13 +2045,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2182,13 +2069,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>25</v>
-      </c>
-      <c r="G33" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2208,13 +2093,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2234,13 +2117,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>25</v>
-      </c>
-      <c r="G35" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2260,13 +2141,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2286,13 +2165,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>25</v>
-      </c>
-      <c r="G37" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2312,13 +2189,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2338,13 +2213,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>25</v>
-      </c>
-      <c r="G39" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2364,13 +2237,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2390,13 +2261,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G41" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2416,13 +2285,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2442,13 +2309,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>25</v>
-      </c>
-      <c r="G43" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2468,13 +2333,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2494,13 +2357,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>25</v>
-      </c>
-      <c r="G45" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2520,13 +2381,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2546,13 +2405,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>25</v>
-      </c>
-      <c r="G47" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2572,13 +2429,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2598,13 +2453,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>25</v>
-      </c>
-      <c r="G49" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2624,13 +2477,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2650,13 +2501,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>25</v>
-      </c>
-      <c r="G51" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2676,13 +2525,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2702,13 +2549,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>25</v>
-      </c>
-      <c r="G53" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2728,13 +2573,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2754,13 +2597,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>25</v>
-      </c>
-      <c r="G55" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2780,13 +2621,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2806,13 +2645,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>25</v>
-      </c>
-      <c r="G57" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2832,13 +2669,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2858,13 +2693,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>25</v>
-      </c>
-      <c r="G59" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2884,13 +2717,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2910,13 +2741,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>76</v>
-      </c>
-      <c r="G61" t="s">
-        <v>77</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2936,13 +2765,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>25</v>
-      </c>
-      <c r="G62" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2962,13 +2789,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>76</v>
-      </c>
-      <c r="G63" t="s">
-        <v>77</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2988,13 +2813,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>25</v>
-      </c>
-      <c r="G64" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3014,13 +2837,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>76</v>
-      </c>
-      <c r="G65" t="s">
-        <v>77</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3040,13 +2861,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>25</v>
-      </c>
-      <c r="G66" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3066,13 +2885,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>76</v>
-      </c>
-      <c r="G67" t="s">
+        <v>70</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
         <v>77</v>
-      </c>
-      <c r="H67" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3092,13 +2909,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>25</v>
-      </c>
-      <c r="G68" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3118,13 +2933,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>76</v>
-      </c>
-      <c r="G69" t="s">
-        <v>77</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3144,13 +2957,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>25</v>
-      </c>
-      <c r="G70" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3170,13 +2981,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>76</v>
-      </c>
-      <c r="G71" t="s">
-        <v>77</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3196,13 +3005,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3222,13 +3029,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>90</v>
-      </c>
-      <c r="G73" t="s">
-        <v>91</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3248,13 +3053,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
-      </c>
-      <c r="G74" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3274,13 +3077,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>90</v>
-      </c>
-      <c r="G75" t="s">
-        <v>91</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3300,13 +3101,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
-      </c>
-      <c r="G76" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3326,13 +3125,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>90</v>
-      </c>
-      <c r="G77" t="s">
-        <v>91</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3352,13 +3149,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
-      </c>
-      <c r="G78" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3378,13 +3173,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
+        <v>83</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
         <v>90</v>
-      </c>
-      <c r="G79" t="s">
-        <v>91</v>
-      </c>
-      <c r="H79" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3404,13 +3197,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
-      </c>
-      <c r="G80" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3430,13 +3221,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>90</v>
-      </c>
-      <c r="G81" t="s">
-        <v>91</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3456,13 +3245,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>25</v>
-      </c>
-      <c r="G82" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3482,13 +3269,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>90</v>
-      </c>
-      <c r="G83" t="s">
-        <v>91</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3508,13 +3293,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>25</v>
-      </c>
-      <c r="G84" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3534,13 +3317,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>90</v>
-      </c>
-      <c r="G85" t="s">
-        <v>91</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3560,13 +3341,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>25</v>
-      </c>
-      <c r="G86" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3586,13 +3365,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>90</v>
-      </c>
-      <c r="G87" t="s">
-        <v>91</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3612,13 +3389,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>14</v>
-      </c>
-      <c r="G88" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3638,13 +3413,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>108</v>
-      </c>
-      <c r="G89" t="s">
-        <v>109</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3664,13 +3437,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3690,13 +3461,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>108</v>
-      </c>
-      <c r="G91" t="s">
-        <v>109</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3716,13 +3485,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>19</v>
-      </c>
-      <c r="G92" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3742,13 +3509,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>108</v>
-      </c>
-      <c r="G93" t="s">
-        <v>109</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3768,13 +3533,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>14</v>
-      </c>
-      <c r="G94" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3794,13 +3557,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>108</v>
-      </c>
-      <c r="G95" t="s">
-        <v>109</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3820,13 +3581,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>19</v>
-      </c>
-      <c r="G96" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3846,13 +3605,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>14</v>
-      </c>
-      <c r="G97" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3872,13 +3629,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>108</v>
-      </c>
-      <c r="G98" t="s">
-        <v>109</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3898,13 +3653,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>25</v>
-      </c>
-      <c r="G99" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3924,13 +3677,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>108</v>
-      </c>
-      <c r="G100" t="s">
-        <v>109</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3950,13 +3701,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>25</v>
-      </c>
-      <c r="G101" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3976,13 +3725,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>108</v>
-      </c>
-      <c r="G102" t="s">
-        <v>109</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4002,13 +3749,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>14</v>
-      </c>
-      <c r="G103" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4028,13 +3773,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>125</v>
-      </c>
-      <c r="G104" t="s">
-        <v>126</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4054,13 +3797,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>25</v>
-      </c>
-      <c r="G105" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4080,13 +3821,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>125</v>
-      </c>
-      <c r="G106" t="s">
-        <v>126</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4106,13 +3845,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>25</v>
-      </c>
-      <c r="G107" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4132,13 +3869,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>125</v>
-      </c>
-      <c r="G108" t="s">
-        <v>126</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4158,13 +3893,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>25</v>
-      </c>
-      <c r="G109" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4184,13 +3917,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>125</v>
-      </c>
-      <c r="G110" t="s">
-        <v>126</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4210,13 +3941,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>25</v>
-      </c>
-      <c r="G111" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4236,13 +3965,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>125</v>
-      </c>
-      <c r="G112" t="s">
-        <v>126</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4262,13 +3989,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>25</v>
-      </c>
-      <c r="G113" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4288,13 +4013,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>125</v>
-      </c>
-      <c r="G114" t="s">
+        <v>22</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
         <v>126</v>
-      </c>
-      <c r="H114" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4314,13 +4037,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>25</v>
-      </c>
-      <c r="G115" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4340,13 +4061,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>125</v>
-      </c>
-      <c r="G116" t="s">
-        <v>126</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4366,13 +4085,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>25</v>
-      </c>
-      <c r="G117" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4392,13 +4109,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>125</v>
-      </c>
-      <c r="G118" t="s">
-        <v>126</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4418,13 +4133,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>25</v>
-      </c>
-      <c r="G119" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4444,13 +4157,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>14</v>
-      </c>
-      <c r="G120" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4470,13 +4181,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>125</v>
-      </c>
-      <c r="G121" t="s">
-        <v>126</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4496,13 +4205,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>14</v>
-      </c>
-      <c r="G122" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4522,13 +4229,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>125</v>
-      </c>
-      <c r="G123" t="s">
-        <v>126</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4548,13 +4253,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>25</v>
-      </c>
-      <c r="G124" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4574,13 +4277,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>125</v>
-      </c>
-      <c r="G125" t="s">
-        <v>126</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4600,13 +4301,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>25</v>
-      </c>
-      <c r="G126" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4626,13 +4325,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>125</v>
-      </c>
-      <c r="G127" t="s">
-        <v>126</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4652,13 +4349,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>14</v>
-      </c>
-      <c r="G128" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4678,13 +4373,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>152</v>
-      </c>
-      <c r="G129" t="s">
-        <v>153</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4704,13 +4397,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>25</v>
-      </c>
-      <c r="G130" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4730,13 +4421,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>152</v>
-      </c>
-      <c r="G131" t="s">
-        <v>153</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4756,13 +4445,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>25</v>
-      </c>
-      <c r="G132" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4782,13 +4469,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>152</v>
-      </c>
-      <c r="G133" t="s">
-        <v>153</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4808,13 +4493,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>25</v>
-      </c>
-      <c r="G134" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4834,13 +4517,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>152</v>
-      </c>
-      <c r="G135" t="s">
-        <v>153</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4860,13 +4541,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>34</v>
-      </c>
-      <c r="G136" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4886,13 +4565,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>152</v>
-      </c>
-      <c r="G137" t="s">
-        <v>153</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4912,13 +4589,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>34</v>
-      </c>
-      <c r="G138" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4938,13 +4613,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
+        <v>141</v>
+      </c>
+      <c r="G139" t="s"/>
+      <c r="H139" t="s">
         <v>152</v>
-      </c>
-      <c r="G139" t="s">
-        <v>153</v>
-      </c>
-      <c r="H139" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4964,13 +4637,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>34</v>
-      </c>
-      <c r="G140" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4990,13 +4661,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>152</v>
-      </c>
-      <c r="G141" t="s">
-        <v>153</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5016,13 +4685,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>25</v>
-      </c>
-      <c r="G142" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5042,13 +4709,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>152</v>
-      </c>
-      <c r="G143" t="s">
-        <v>153</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5068,13 +4733,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>14</v>
-      </c>
-      <c r="G144" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5094,13 +4757,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>170</v>
-      </c>
-      <c r="G145" t="s">
-        <v>171</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5120,13 +4781,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>25</v>
-      </c>
-      <c r="G146" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5146,13 +4805,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>170</v>
-      </c>
-      <c r="G147" t="s">
-        <v>171</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5172,13 +4829,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>25</v>
-      </c>
-      <c r="G148" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5198,13 +4853,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>170</v>
-      </c>
-      <c r="G149" t="s">
-        <v>171</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5224,13 +4877,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>34</v>
-      </c>
-      <c r="G150" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5250,13 +4901,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>170</v>
-      </c>
-      <c r="G151" t="s">
-        <v>171</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5276,13 +4925,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>34</v>
-      </c>
-      <c r="G152" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5302,13 +4949,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>170</v>
-      </c>
-      <c r="G153" t="s">
-        <v>171</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5328,13 +4973,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>25</v>
-      </c>
-      <c r="G154" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5354,13 +4997,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>170</v>
-      </c>
-      <c r="G155" t="s">
-        <v>171</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5380,13 +5021,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>25</v>
-      </c>
-      <c r="G156" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5406,13 +5045,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>170</v>
-      </c>
-      <c r="G157" t="s">
+        <v>158</v>
+      </c>
+      <c r="G157" t="s"/>
+      <c r="H157" t="s">
         <v>171</v>
-      </c>
-      <c r="H157" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5432,13 +5069,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>25</v>
-      </c>
-      <c r="G158" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5458,13 +5093,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>170</v>
-      </c>
-      <c r="G159" t="s">
-        <v>171</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5484,13 +5117,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>25</v>
-      </c>
-      <c r="G160" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5510,13 +5141,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>170</v>
-      </c>
-      <c r="G161" t="s">
-        <v>171</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5536,13 +5165,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>25</v>
-      </c>
-      <c r="G162" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5562,13 +5189,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>170</v>
-      </c>
-      <c r="G163" t="s">
-        <v>171</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5588,13 +5213,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>25</v>
-      </c>
-      <c r="G164" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5614,13 +5237,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>170</v>
-      </c>
-      <c r="G165" t="s">
-        <v>171</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5640,13 +5261,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>25</v>
-      </c>
-      <c r="G166" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5666,13 +5285,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>170</v>
-      </c>
-      <c r="G167" t="s">
-        <v>171</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5692,13 +5309,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>25</v>
-      </c>
-      <c r="G168" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5718,13 +5333,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>170</v>
-      </c>
-      <c r="G169" t="s">
-        <v>171</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5744,13 +5357,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>25</v>
-      </c>
-      <c r="G170" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5770,13 +5381,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>170</v>
-      </c>
-      <c r="G171" t="s">
-        <v>171</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5796,13 +5405,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>14</v>
-      </c>
-      <c r="G172" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5822,13 +5429,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>200</v>
-      </c>
-      <c r="G173" t="s">
-        <v>201</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5848,13 +5453,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>25</v>
-      </c>
-      <c r="G174" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5874,13 +5477,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>200</v>
-      </c>
-      <c r="G175" t="s">
-        <v>201</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5900,13 +5501,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>25</v>
-      </c>
-      <c r="G176" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5926,13 +5525,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>200</v>
-      </c>
-      <c r="G177" t="s">
-        <v>201</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5952,13 +5549,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>25</v>
-      </c>
-      <c r="G178" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5978,13 +5573,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>200</v>
-      </c>
-      <c r="G179" t="s">
-        <v>201</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6004,13 +5597,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>25</v>
-      </c>
-      <c r="G180" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6030,13 +5621,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>200</v>
-      </c>
-      <c r="G181" t="s">
-        <v>201</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6056,13 +5645,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>25</v>
-      </c>
-      <c r="G182" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6082,13 +5669,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>200</v>
-      </c>
-      <c r="G183" t="s">
-        <v>201</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6108,13 +5693,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>25</v>
-      </c>
-      <c r="G184" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6134,13 +5717,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
+        <v>187</v>
+      </c>
+      <c r="G185" t="s"/>
+      <c r="H185" t="s">
         <v>200</v>
-      </c>
-      <c r="G185" t="s">
-        <v>201</v>
-      </c>
-      <c r="H185" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6160,13 +5741,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>25</v>
-      </c>
-      <c r="G186" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6186,13 +5765,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>200</v>
-      </c>
-      <c r="G187" t="s">
-        <v>201</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6212,13 +5789,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>25</v>
-      </c>
-      <c r="G188" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6238,13 +5813,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>200</v>
-      </c>
-      <c r="G189" t="s">
-        <v>201</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6264,13 +5837,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>25</v>
-      </c>
-      <c r="G190" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6290,13 +5861,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>200</v>
-      </c>
-      <c r="G191" t="s">
-        <v>201</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6316,13 +5885,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>25</v>
-      </c>
-      <c r="G192" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6342,13 +5909,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>200</v>
-      </c>
-      <c r="G193" t="s">
-        <v>201</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6368,13 +5933,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>25</v>
-      </c>
-      <c r="G194" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6394,13 +5957,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>200</v>
-      </c>
-      <c r="G195" t="s">
-        <v>201</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6420,13 +5981,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>14</v>
-      </c>
-      <c r="G196" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6446,13 +6005,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>200</v>
-      </c>
-      <c r="G197" t="s">
-        <v>201</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6472,13 +6029,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>14</v>
-      </c>
-      <c r="G198" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6498,13 +6053,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>25</v>
-      </c>
-      <c r="G199" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6524,13 +6077,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>14</v>
-      </c>
-      <c r="G200" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6550,13 +6101,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>25</v>
-      </c>
-      <c r="G201" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6576,13 +6125,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>14</v>
-      </c>
-      <c r="G202" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6602,13 +6149,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>232</v>
-      </c>
-      <c r="G203" t="s">
-        <v>233</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6628,13 +6173,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>34</v>
-      </c>
-      <c r="G204" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6654,13 +6197,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>232</v>
-      </c>
-      <c r="G205" t="s">
-        <v>233</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6680,13 +6221,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>34</v>
-      </c>
-      <c r="G206" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6706,13 +6245,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>232</v>
-      </c>
-      <c r="G207" t="s">
-        <v>233</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6732,13 +6269,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>34</v>
-      </c>
-      <c r="G208" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6758,13 +6293,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>232</v>
-      </c>
-      <c r="G209" t="s">
-        <v>233</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6784,13 +6317,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>34</v>
-      </c>
-      <c r="G210" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6810,13 +6341,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>232</v>
-      </c>
-      <c r="G211" t="s">
-        <v>233</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6836,13 +6365,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>34</v>
-      </c>
-      <c r="G212" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6862,13 +6389,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>232</v>
-      </c>
-      <c r="G213" t="s">
-        <v>233</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6888,13 +6413,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>34</v>
-      </c>
-      <c r="G214" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6914,13 +6437,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>232</v>
-      </c>
-      <c r="G215" t="s">
-        <v>233</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6940,13 +6461,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>34</v>
-      </c>
-      <c r="G216" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6966,13 +6485,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>232</v>
-      </c>
-      <c r="G217" t="s">
+        <v>218</v>
+      </c>
+      <c r="G217" t="s"/>
+      <c r="H217" t="s">
         <v>233</v>
-      </c>
-      <c r="H217" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6992,13 +6509,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>25</v>
-      </c>
-      <c r="G218" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7018,13 +6533,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>232</v>
-      </c>
-      <c r="G219" t="s">
-        <v>233</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7044,13 +6557,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>14</v>
-      </c>
-      <c r="G220" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7070,13 +6581,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>252</v>
-      </c>
-      <c r="G221" t="s">
-        <v>253</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7096,13 +6605,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>25</v>
-      </c>
-      <c r="G222" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7122,13 +6629,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>34</v>
-      </c>
-      <c r="G223" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7148,13 +6653,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>25</v>
-      </c>
-      <c r="G224" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7174,13 +6677,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>252</v>
-      </c>
-      <c r="G225" t="s">
-        <v>253</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7200,13 +6701,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>14</v>
-      </c>
-      <c r="G226" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7226,13 +6725,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>19</v>
-      </c>
-      <c r="G227" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7252,13 +6749,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>25</v>
-      </c>
-      <c r="G228" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7278,13 +6773,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>19</v>
-      </c>
-      <c r="G229" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7304,13 +6797,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>25</v>
-      </c>
-      <c r="G230" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7330,13 +6821,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>19</v>
-      </c>
-      <c r="G231" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7356,13 +6845,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>25</v>
-      </c>
-      <c r="G232" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7382,13 +6869,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>19</v>
-      </c>
-      <c r="G233" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7408,13 +6893,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>25</v>
-      </c>
-      <c r="G234" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7434,13 +6917,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>19</v>
-      </c>
-      <c r="G235" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7460,13 +6941,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>25</v>
-      </c>
-      <c r="G236" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7486,13 +6965,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>19</v>
-      </c>
-      <c r="G237" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7512,13 +6989,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>25</v>
-      </c>
-      <c r="G238" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7538,13 +7013,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>19</v>
-      </c>
-      <c r="G239" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7564,13 +7037,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>25</v>
-      </c>
-      <c r="G240" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7590,13 +7061,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>19</v>
-      </c>
-      <c r="G241" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7616,13 +7085,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>25</v>
-      </c>
-      <c r="G242" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7642,13 +7109,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>19</v>
-      </c>
-      <c r="G243" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7668,13 +7133,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>25</v>
-      </c>
-      <c r="G244" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7694,13 +7157,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>19</v>
-      </c>
-      <c r="G245" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7720,13 +7181,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>34</v>
-      </c>
-      <c r="G246" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7746,13 +7205,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>19</v>
-      </c>
-      <c r="G247" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7772,13 +7229,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>34</v>
-      </c>
-      <c r="G248" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7798,13 +7253,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>19</v>
-      </c>
-      <c r="G249" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7824,13 +7277,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>25</v>
-      </c>
-      <c r="G250" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7850,13 +7301,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>19</v>
-      </c>
-      <c r="G251" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7876,13 +7325,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>25</v>
-      </c>
-      <c r="G252" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7902,13 +7349,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>19</v>
-      </c>
-      <c r="G253" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7928,13 +7373,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>25</v>
-      </c>
-      <c r="G254" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7954,13 +7397,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>19</v>
-      </c>
-      <c r="G255" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7980,13 +7421,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>25</v>
-      </c>
-      <c r="G256" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8006,13 +7445,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>19</v>
-      </c>
-      <c r="G257" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8032,13 +7469,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>25</v>
-      </c>
-      <c r="G258" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8058,13 +7493,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>19</v>
-      </c>
-      <c r="G259" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8084,13 +7517,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>25</v>
-      </c>
-      <c r="G260" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8110,13 +7541,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>19</v>
-      </c>
-      <c r="G261" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8136,13 +7565,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>25</v>
-      </c>
-      <c r="G262" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8162,13 +7589,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>19</v>
-      </c>
-      <c r="G263" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8188,13 +7613,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>14</v>
-      </c>
-      <c r="G264" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8214,13 +7637,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>296</v>
-      </c>
-      <c r="G265" t="s">
-        <v>297</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8240,13 +7661,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>25</v>
-      </c>
-      <c r="G266" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8266,13 +7685,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>296</v>
-      </c>
-      <c r="G267" t="s">
-        <v>297</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8292,13 +7709,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>25</v>
-      </c>
-      <c r="G268" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8318,13 +7733,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>296</v>
-      </c>
-      <c r="G269" t="s">
-        <v>297</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8344,13 +7757,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>25</v>
-      </c>
-      <c r="G270" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8370,13 +7781,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>296</v>
-      </c>
-      <c r="G271" t="s">
-        <v>297</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8396,13 +7805,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>25</v>
-      </c>
-      <c r="G272" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8422,13 +7829,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>296</v>
-      </c>
-      <c r="G273" t="s">
-        <v>297</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8448,13 +7853,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>25</v>
-      </c>
-      <c r="G274" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8474,13 +7877,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>296</v>
-      </c>
-      <c r="G275" t="s">
-        <v>297</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8500,13 +7901,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>14</v>
-      </c>
-      <c r="G276" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8526,13 +7925,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>25</v>
-      </c>
-      <c r="G277" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8552,13 +7949,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>14</v>
-      </c>
-      <c r="G278" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8578,13 +7973,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>34</v>
-      </c>
-      <c r="G279" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8604,13 +7997,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>14</v>
-      </c>
-      <c r="G280" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8630,13 +8021,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>34</v>
-      </c>
-      <c r="G281" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8656,13 +8045,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>14</v>
-      </c>
-      <c r="G282" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8682,13 +8069,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>25</v>
-      </c>
-      <c r="G283" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8708,13 +8093,11 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>14</v>
-      </c>
-      <c r="G284" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -8734,13 +8117,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>25</v>
-      </c>
-      <c r="G285" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8760,13 +8141,11 @@
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>14</v>
-      </c>
-      <c r="G286" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -8786,13 +8165,11 @@
         <v>10</v>
       </c>
       <c r="F287" t="s">
-        <v>25</v>
-      </c>
-      <c r="G287" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -8812,13 +8189,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>14</v>
-      </c>
-      <c r="G288" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -8838,13 +8213,11 @@
         <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>14</v>
-      </c>
-      <c r="G289" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
